--- a/scripts/results_SimulationFindN2/Organizacion_resultados.xlsx
+++ b/scripts/results_SimulationFindN2/Organizacion_resultados.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://solisservices-my.sharepoint.com/personal/c_n_barraganibanez_uu_nl/Documents/Documents/GitHub/CRT-Sample-Size-Determination/scripts/results_SimulationFindN2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{7C1A3879-3CCD-4C48-9BE8-86DD355A75DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB416D2E-B1B9-45A4-8F01-1BAF2178EF52}"/>
+  <xr:revisionPtr revIDLastSave="268" documentId="8_{7C1A3879-3CCD-4C48-9BE8-86DD355A75DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44AE6BCC-778F-4A46-81C6-D0AF954EB0A9}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15840" xr2:uid="{A6B2AD62-15FC-4143-96AE-61C9EDF4BDB4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A6B2AD62-15FC-4143-96AE-61C9EDF4BDB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="findN1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="20">
   <si>
     <t>n1</t>
   </si>
@@ -67,12 +69,42 @@
   <si>
     <t>id_number</t>
   </si>
+  <si>
+    <t>rho</t>
+  </si>
+  <si>
+    <t>eff_size</t>
+  </si>
+  <si>
+    <t>BF_threshold</t>
+  </si>
+  <si>
+    <t>n2</t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>Parallelise version</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>New numbers</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,8 +125,14 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,8 +169,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -151,11 +195,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD6DADC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD6DADC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD6DADC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD6DADC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD6DADC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD6DADC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -182,6 +259,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -197,6 +308,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -498,7 +613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD105D8-B4B3-4C43-8F31-1DAE6E1CDA36}">
   <dimension ref="A1:AC83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
@@ -3632,4 +3747,2492 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908DEE17-25E9-442B-B567-8EA3E49E4820}">
+  <dimension ref="A1:N85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="O85" sqref="O85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="12"/>
+      <c r="C1" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="D4" s="15">
+        <v>1</v>
+      </c>
+      <c r="E4" s="15">
+        <v>30</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="17">
+        <v>1</v>
+      </c>
+      <c r="H4" s="17">
+        <v>1</v>
+      </c>
+      <c r="I4" s="17">
+        <v>1</v>
+      </c>
+      <c r="J4" s="17">
+        <v>1</v>
+      </c>
+      <c r="K4" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="15">
+        <v>1</v>
+      </c>
+      <c r="E5" s="15">
+        <v>30</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="17">
+        <v>1</v>
+      </c>
+      <c r="H5" s="17">
+        <v>1</v>
+      </c>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="11">
+        <v>3</v>
+      </c>
+      <c r="B6" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="D6" s="20">
+        <v>1</v>
+      </c>
+      <c r="E6" s="20">
+        <v>30</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="18">
+        <v>1</v>
+      </c>
+      <c r="K6" s="10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="15">
+        <v>1</v>
+      </c>
+      <c r="E7" s="15">
+        <v>30</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="17">
+        <v>1</v>
+      </c>
+      <c r="I7" s="18">
+        <v>1</v>
+      </c>
+      <c r="J7" s="18">
+        <v>2</v>
+      </c>
+      <c r="K7" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="15">
+        <v>1</v>
+      </c>
+      <c r="E8" s="15">
+        <v>30</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="18">
+        <v>1</v>
+      </c>
+      <c r="I8" s="18">
+        <v>1</v>
+      </c>
+      <c r="J8" s="18">
+        <v>3</v>
+      </c>
+      <c r="K8" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="15">
+        <v>1</v>
+      </c>
+      <c r="E9" s="15">
+        <v>30</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="18">
+        <v>1</v>
+      </c>
+      <c r="I9" s="18">
+        <v>1</v>
+      </c>
+      <c r="J9" s="18">
+        <v>4</v>
+      </c>
+      <c r="K9" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D10" s="15">
+        <v>1</v>
+      </c>
+      <c r="E10" s="15">
+        <v>30</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="18">
+        <v>1</v>
+      </c>
+      <c r="I10" s="18">
+        <v>1</v>
+      </c>
+      <c r="J10" s="18">
+        <v>5</v>
+      </c>
+      <c r="K10" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D11" s="15">
+        <v>1</v>
+      </c>
+      <c r="E11" s="15">
+        <v>30</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="18">
+        <v>1</v>
+      </c>
+      <c r="I11" s="18">
+        <v>1</v>
+      </c>
+      <c r="J11" s="18">
+        <v>6</v>
+      </c>
+      <c r="K11" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="C12" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D12" s="15">
+        <v>1</v>
+      </c>
+      <c r="E12" s="15">
+        <v>30</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="18">
+        <v>1</v>
+      </c>
+      <c r="I12" s="18">
+        <v>1</v>
+      </c>
+      <c r="J12" s="18">
+        <v>7</v>
+      </c>
+      <c r="K12" s="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C13" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="D13" s="15">
+        <v>3</v>
+      </c>
+      <c r="E13" s="15">
+        <v>30</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="18">
+        <v>1</v>
+      </c>
+      <c r="H13" s="18">
+        <v>1</v>
+      </c>
+      <c r="I13" s="18">
+        <v>1</v>
+      </c>
+      <c r="J13" s="18">
+        <v>8</v>
+      </c>
+      <c r="K13" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="11">
+        <v>11</v>
+      </c>
+      <c r="B14" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="C14" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="D14" s="20">
+        <v>3</v>
+      </c>
+      <c r="E14" s="20">
+        <v>30</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="18">
+        <v>1</v>
+      </c>
+      <c r="K14" s="10">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="11">
+        <v>12</v>
+      </c>
+      <c r="B15" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="C15" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="D15" s="20">
+        <v>3</v>
+      </c>
+      <c r="E15" s="20">
+        <v>30</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="18">
+        <v>1</v>
+      </c>
+      <c r="K15" s="10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C16" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="15">
+        <v>3</v>
+      </c>
+      <c r="E16" s="15">
+        <v>30</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="18">
+        <v>1</v>
+      </c>
+      <c r="I16" s="18">
+        <v>1</v>
+      </c>
+      <c r="J16" s="18">
+        <v>9</v>
+      </c>
+      <c r="K16" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="C17" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="15">
+        <v>3</v>
+      </c>
+      <c r="E17" s="15">
+        <v>30</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="18">
+        <v>1</v>
+      </c>
+      <c r="I17" s="18">
+        <v>1</v>
+      </c>
+      <c r="J17" s="18">
+        <v>10</v>
+      </c>
+      <c r="K17" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="C18" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="15">
+        <v>3</v>
+      </c>
+      <c r="E18" s="15">
+        <v>30</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="18">
+        <v>1</v>
+      </c>
+      <c r="J18" s="18">
+        <v>11</v>
+      </c>
+      <c r="K18" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C19" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D19" s="15">
+        <v>3</v>
+      </c>
+      <c r="E19" s="15">
+        <v>30</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="17">
+        <v>1</v>
+      </c>
+      <c r="I19" s="18">
+        <v>1</v>
+      </c>
+      <c r="J19" s="18">
+        <v>12</v>
+      </c>
+      <c r="K19" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="C20" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D20" s="15">
+        <v>3</v>
+      </c>
+      <c r="E20" s="15">
+        <v>30</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="18">
+        <v>1</v>
+      </c>
+      <c r="I20" s="18">
+        <v>1</v>
+      </c>
+      <c r="J20" s="18">
+        <v>13</v>
+      </c>
+      <c r="K20" s="18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="C21" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D21" s="15">
+        <v>3</v>
+      </c>
+      <c r="E21" s="15">
+        <v>30</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="18">
+        <v>1</v>
+      </c>
+      <c r="J21" s="18">
+        <v>14</v>
+      </c>
+      <c r="K21" s="18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C22" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="D22" s="15">
+        <v>5</v>
+      </c>
+      <c r="E22" s="15">
+        <v>30</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="17">
+        <v>1</v>
+      </c>
+      <c r="H22" s="17">
+        <v>1</v>
+      </c>
+      <c r="I22" s="18">
+        <v>1</v>
+      </c>
+      <c r="J22" s="18">
+        <v>15</v>
+      </c>
+      <c r="K22" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="11">
+        <v>20</v>
+      </c>
+      <c r="B23" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="C23" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="D23" s="20">
+        <v>5</v>
+      </c>
+      <c r="E23" s="20">
+        <v>30</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="18">
+        <v>1</v>
+      </c>
+      <c r="K23" s="10">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="11">
+        <v>21</v>
+      </c>
+      <c r="B24" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="C24" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="D24" s="20">
+        <v>5</v>
+      </c>
+      <c r="E24" s="20">
+        <v>30</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="18">
+        <v>1</v>
+      </c>
+      <c r="K24" s="10">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
+        <v>22</v>
+      </c>
+      <c r="B25" s="15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C25" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D25" s="15">
+        <v>5</v>
+      </c>
+      <c r="E25" s="15">
+        <v>30</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="17">
+        <v>1</v>
+      </c>
+      <c r="I25" s="18">
+        <v>1</v>
+      </c>
+      <c r="J25" s="18">
+        <v>16</v>
+      </c>
+      <c r="K25" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
+        <v>23</v>
+      </c>
+      <c r="B26" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="C26" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D26" s="15">
+        <v>5</v>
+      </c>
+      <c r="E26" s="15">
+        <v>30</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="18">
+        <v>1</v>
+      </c>
+      <c r="J26" s="18">
+        <v>17</v>
+      </c>
+      <c r="K26" s="18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
+        <v>24</v>
+      </c>
+      <c r="B27" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="C27" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D27" s="15">
+        <v>5</v>
+      </c>
+      <c r="E27" s="15">
+        <v>30</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="18">
+        <v>1</v>
+      </c>
+      <c r="J27" s="18">
+        <v>18</v>
+      </c>
+      <c r="K27" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>25</v>
+      </c>
+      <c r="B28" s="15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C28" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D28" s="15">
+        <v>5</v>
+      </c>
+      <c r="E28" s="15">
+        <v>30</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="18">
+        <v>1</v>
+      </c>
+      <c r="J28" s="18">
+        <v>19</v>
+      </c>
+      <c r="K28" s="18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
+        <v>26</v>
+      </c>
+      <c r="B29" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="C29" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D29" s="15">
+        <v>5</v>
+      </c>
+      <c r="E29" s="15">
+        <v>30</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="18">
+        <v>1</v>
+      </c>
+      <c r="J29" s="18">
+        <v>20</v>
+      </c>
+      <c r="K29" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
+        <v>27</v>
+      </c>
+      <c r="B30" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="C30" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D30" s="15">
+        <v>5</v>
+      </c>
+      <c r="E30" s="15">
+        <v>30</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="18">
+        <v>1</v>
+      </c>
+      <c r="J30" s="18">
+        <v>21</v>
+      </c>
+      <c r="K30" s="18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
+        <v>28</v>
+      </c>
+      <c r="B31" s="15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C31" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="D31" s="15">
+        <v>1</v>
+      </c>
+      <c r="E31" s="15">
+        <v>60</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="17">
+        <v>1</v>
+      </c>
+      <c r="H31" s="17">
+        <v>1</v>
+      </c>
+      <c r="I31" s="18">
+        <v>1</v>
+      </c>
+      <c r="J31" s="18">
+        <v>22</v>
+      </c>
+      <c r="K31" s="18">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
+        <v>29</v>
+      </c>
+      <c r="B32" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="C32" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="D32" s="15">
+        <v>1</v>
+      </c>
+      <c r="E32" s="15">
+        <v>60</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="17">
+        <v>1</v>
+      </c>
+      <c r="H32" s="17">
+        <v>1</v>
+      </c>
+      <c r="I32" s="18"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19">
+        <v>70</v>
+      </c>
+      <c r="L32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="11">
+        <v>30</v>
+      </c>
+      <c r="B33" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="C33" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="D33" s="20">
+        <v>1</v>
+      </c>
+      <c r="E33" s="20">
+        <v>60</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="18">
+        <v>1</v>
+      </c>
+      <c r="I33" s="18"/>
+      <c r="K33" s="10">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
+        <v>31</v>
+      </c>
+      <c r="B34" s="15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C34" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D34" s="15">
+        <v>1</v>
+      </c>
+      <c r="E34" s="15">
+        <v>60</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" s="18">
+        <v>1</v>
+      </c>
+      <c r="J34" s="18">
+        <v>23</v>
+      </c>
+      <c r="K34" s="18">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="3">
+        <v>32</v>
+      </c>
+      <c r="B35" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="C35" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D35" s="15">
+        <v>1</v>
+      </c>
+      <c r="E35" s="15">
+        <v>60</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" s="18">
+        <v>1</v>
+      </c>
+      <c r="J35" s="18">
+        <v>24</v>
+      </c>
+      <c r="K35" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="3">
+        <v>33</v>
+      </c>
+      <c r="B36" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="C36" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="15">
+        <v>1</v>
+      </c>
+      <c r="E36" s="15">
+        <v>60</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" s="18">
+        <v>1</v>
+      </c>
+      <c r="J36" s="18">
+        <v>25</v>
+      </c>
+      <c r="K36" s="18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="3">
+        <v>34</v>
+      </c>
+      <c r="B37" s="15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C37" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D37" s="15">
+        <v>1</v>
+      </c>
+      <c r="E37" s="15">
+        <v>60</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" s="18">
+        <v>1</v>
+      </c>
+      <c r="J37" s="18">
+        <v>26</v>
+      </c>
+      <c r="K37" s="18">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="3">
+        <v>35</v>
+      </c>
+      <c r="B38" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="C38" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D38" s="15">
+        <v>1</v>
+      </c>
+      <c r="E38" s="15">
+        <v>60</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" s="18">
+        <v>1</v>
+      </c>
+      <c r="J38" s="18">
+        <v>27</v>
+      </c>
+      <c r="K38" s="18">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="3">
+        <v>36</v>
+      </c>
+      <c r="B39" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="C39" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D39" s="15">
+        <v>1</v>
+      </c>
+      <c r="E39" s="15">
+        <v>60</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" s="18">
+        <v>1</v>
+      </c>
+      <c r="J39" s="18">
+        <v>28</v>
+      </c>
+      <c r="K39" s="18">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="3">
+        <v>37</v>
+      </c>
+      <c r="B40" s="15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C40" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="D40" s="15">
+        <v>3</v>
+      </c>
+      <c r="E40" s="15">
+        <v>60</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="17">
+        <v>1</v>
+      </c>
+      <c r="H40" s="17">
+        <v>1</v>
+      </c>
+      <c r="I40" s="18">
+        <v>1</v>
+      </c>
+      <c r="J40" s="18">
+        <v>29</v>
+      </c>
+      <c r="K40" s="18">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="3">
+        <v>38</v>
+      </c>
+      <c r="B41" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="C41" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="D41" s="15">
+        <v>3</v>
+      </c>
+      <c r="E41" s="15">
+        <v>60</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="17">
+        <v>1</v>
+      </c>
+      <c r="H41" s="17">
+        <v>1</v>
+      </c>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19">
+        <v>72</v>
+      </c>
+      <c r="L41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="11">
+        <v>39</v>
+      </c>
+      <c r="B42" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="C42" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="D42" s="20">
+        <v>3</v>
+      </c>
+      <c r="E42" s="20">
+        <v>60</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="18">
+        <v>1</v>
+      </c>
+      <c r="K42" s="10">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="3">
+        <v>40</v>
+      </c>
+      <c r="B43" s="15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C43" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D43" s="15">
+        <v>3</v>
+      </c>
+      <c r="E43" s="15">
+        <v>60</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" s="18">
+        <v>1</v>
+      </c>
+      <c r="J43" s="18">
+        <v>30</v>
+      </c>
+      <c r="K43" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="3">
+        <v>41</v>
+      </c>
+      <c r="B44" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="C44" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D44" s="15">
+        <v>3</v>
+      </c>
+      <c r="E44" s="15">
+        <v>60</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" s="18">
+        <v>1</v>
+      </c>
+      <c r="J44" s="18">
+        <v>31</v>
+      </c>
+      <c r="K44" s="18">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="3">
+        <v>42</v>
+      </c>
+      <c r="B45" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="C45" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D45" s="15">
+        <v>3</v>
+      </c>
+      <c r="E45" s="15">
+        <v>60</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I45" s="18">
+        <v>1</v>
+      </c>
+      <c r="J45" s="18">
+        <v>32</v>
+      </c>
+      <c r="K45" s="18">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="3">
+        <v>43</v>
+      </c>
+      <c r="B46" s="15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C46" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D46" s="15">
+        <v>3</v>
+      </c>
+      <c r="E46" s="15">
+        <v>60</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46" s="18">
+        <v>1</v>
+      </c>
+      <c r="J46" s="18">
+        <v>33</v>
+      </c>
+      <c r="K46" s="18">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="3">
+        <v>44</v>
+      </c>
+      <c r="B47" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="C47" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D47" s="15">
+        <v>3</v>
+      </c>
+      <c r="E47" s="15">
+        <v>60</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" s="18">
+        <v>1</v>
+      </c>
+      <c r="J47" s="18">
+        <v>34</v>
+      </c>
+      <c r="K47" s="18">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="3">
+        <v>45</v>
+      </c>
+      <c r="B48" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="C48" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D48" s="15">
+        <v>3</v>
+      </c>
+      <c r="E48" s="15">
+        <v>60</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48" s="18">
+        <v>1</v>
+      </c>
+      <c r="J48" s="18">
+        <v>35</v>
+      </c>
+      <c r="K48" s="18">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="3">
+        <v>46</v>
+      </c>
+      <c r="B49" s="15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C49" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="D49" s="15">
+        <v>5</v>
+      </c>
+      <c r="E49" s="15">
+        <v>60</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" s="18">
+        <v>1</v>
+      </c>
+      <c r="I49" s="18">
+        <v>1</v>
+      </c>
+      <c r="J49" s="18">
+        <v>36</v>
+      </c>
+      <c r="K49" s="18">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="11">
+        <v>47</v>
+      </c>
+      <c r="B50" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="C50" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="D50" s="20">
+        <v>5</v>
+      </c>
+      <c r="E50" s="20">
+        <v>60</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" s="18">
+        <v>1</v>
+      </c>
+      <c r="K50" s="10">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="11">
+        <v>48</v>
+      </c>
+      <c r="B51" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="C51" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="D51" s="20">
+        <v>5</v>
+      </c>
+      <c r="E51" s="20">
+        <v>60</v>
+      </c>
+      <c r="F51" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" s="18">
+        <v>1</v>
+      </c>
+      <c r="K51" s="10">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="3">
+        <v>49</v>
+      </c>
+      <c r="B52" s="15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C52" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D52" s="15">
+        <v>5</v>
+      </c>
+      <c r="E52" s="15">
+        <v>60</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I52" s="18">
+        <v>1</v>
+      </c>
+      <c r="J52" s="18">
+        <v>37</v>
+      </c>
+      <c r="K52" s="18">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="3">
+        <v>50</v>
+      </c>
+      <c r="B53" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="C53" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D53" s="15">
+        <v>5</v>
+      </c>
+      <c r="E53" s="15">
+        <v>60</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53" s="18">
+        <v>1</v>
+      </c>
+      <c r="J53" s="18">
+        <v>38</v>
+      </c>
+      <c r="K53" s="18">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="3">
+        <v>51</v>
+      </c>
+      <c r="B54" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="C54" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D54" s="15">
+        <v>5</v>
+      </c>
+      <c r="E54" s="15">
+        <v>60</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I54" s="18">
+        <v>1</v>
+      </c>
+      <c r="J54" s="18">
+        <v>39</v>
+      </c>
+      <c r="K54" s="18">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="3">
+        <v>52</v>
+      </c>
+      <c r="B55" s="15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C55" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D55" s="15">
+        <v>5</v>
+      </c>
+      <c r="E55" s="15">
+        <v>60</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I55" s="18">
+        <v>1</v>
+      </c>
+      <c r="J55" s="18">
+        <v>40</v>
+      </c>
+      <c r="K55" s="18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="3">
+        <v>53</v>
+      </c>
+      <c r="B56" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="C56" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D56" s="15">
+        <v>5</v>
+      </c>
+      <c r="E56" s="15">
+        <v>60</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I56" s="18">
+        <v>1</v>
+      </c>
+      <c r="J56" s="18">
+        <v>41</v>
+      </c>
+      <c r="K56" s="18">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="3">
+        <v>54</v>
+      </c>
+      <c r="B57" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="C57" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D57" s="15">
+        <v>5</v>
+      </c>
+      <c r="E57" s="15">
+        <v>60</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I57" s="18">
+        <v>1</v>
+      </c>
+      <c r="J57" s="18">
+        <v>42</v>
+      </c>
+      <c r="K57" s="18">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="3">
+        <v>55</v>
+      </c>
+      <c r="B58" s="15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C58" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="D58" s="15">
+        <v>1</v>
+      </c>
+      <c r="E58" s="15">
+        <v>90</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="17">
+        <v>1</v>
+      </c>
+      <c r="H58" s="17">
+        <v>1</v>
+      </c>
+      <c r="I58" s="18">
+        <v>1</v>
+      </c>
+      <c r="J58" s="18">
+        <v>43</v>
+      </c>
+      <c r="K58" s="18">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="3">
+        <v>56</v>
+      </c>
+      <c r="B59" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="C59" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="D59" s="15">
+        <v>1</v>
+      </c>
+      <c r="E59" s="15">
+        <v>90</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="17">
+        <v>1</v>
+      </c>
+      <c r="H59" s="17">
+        <v>1</v>
+      </c>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19">
+        <v>76</v>
+      </c>
+      <c r="L59" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="11">
+        <v>57</v>
+      </c>
+      <c r="B60" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="C60" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="D60" s="20">
+        <v>1</v>
+      </c>
+      <c r="E60" s="20">
+        <v>90</v>
+      </c>
+      <c r="F60" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" s="18">
+        <v>1</v>
+      </c>
+      <c r="K60" s="10">
+        <v>77</v>
+      </c>
+      <c r="N60" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="3">
+        <v>58</v>
+      </c>
+      <c r="B61" s="15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C61" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D61" s="15">
+        <v>1</v>
+      </c>
+      <c r="E61" s="15">
+        <v>90</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I61" s="18">
+        <v>1</v>
+      </c>
+      <c r="J61" s="18">
+        <v>44</v>
+      </c>
+      <c r="K61" s="18">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="3">
+        <v>59</v>
+      </c>
+      <c r="B62" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="C62" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D62" s="15">
+        <v>1</v>
+      </c>
+      <c r="E62" s="15">
+        <v>90</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I62" s="18">
+        <v>1</v>
+      </c>
+      <c r="J62" s="18">
+        <v>45</v>
+      </c>
+      <c r="K62" s="18">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="3">
+        <v>60</v>
+      </c>
+      <c r="B63" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="C63" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D63" s="15">
+        <v>1</v>
+      </c>
+      <c r="E63" s="15">
+        <v>90</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I63" s="18">
+        <v>1</v>
+      </c>
+      <c r="J63" s="18">
+        <v>46</v>
+      </c>
+      <c r="K63" s="18">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="3">
+        <v>61</v>
+      </c>
+      <c r="B64" s="15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C64" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D64" s="15">
+        <v>1</v>
+      </c>
+      <c r="E64" s="15">
+        <v>90</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I64" s="18">
+        <v>1</v>
+      </c>
+      <c r="J64" s="18">
+        <v>47</v>
+      </c>
+      <c r="K64" s="18">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="3">
+        <v>62</v>
+      </c>
+      <c r="B65" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="C65" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D65" s="15">
+        <v>1</v>
+      </c>
+      <c r="E65" s="15">
+        <v>90</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I65" s="18">
+        <v>1</v>
+      </c>
+      <c r="J65" s="18">
+        <v>48</v>
+      </c>
+      <c r="K65" s="18">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="3">
+        <v>63</v>
+      </c>
+      <c r="B66" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="C66" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D66" s="15">
+        <v>1</v>
+      </c>
+      <c r="E66" s="15">
+        <v>90</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I66" s="18">
+        <v>1</v>
+      </c>
+      <c r="J66" s="18">
+        <v>49</v>
+      </c>
+      <c r="K66" s="18">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="3">
+        <v>64</v>
+      </c>
+      <c r="B67" s="15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C67" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="D67" s="15">
+        <v>3</v>
+      </c>
+      <c r="E67" s="15">
+        <v>90</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" s="17">
+        <v>1</v>
+      </c>
+      <c r="H67" s="17">
+        <v>1</v>
+      </c>
+      <c r="I67" s="18">
+        <v>1</v>
+      </c>
+      <c r="J67" s="18">
+        <v>50</v>
+      </c>
+      <c r="K67" s="18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="11">
+        <v>65</v>
+      </c>
+      <c r="B68" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="C68" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="D68" s="20">
+        <v>3</v>
+      </c>
+      <c r="E68" s="20">
+        <v>90</v>
+      </c>
+      <c r="F68" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68" s="18">
+        <v>1</v>
+      </c>
+      <c r="I68" s="18"/>
+      <c r="K68" s="10">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="11">
+        <v>66</v>
+      </c>
+      <c r="B69" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="C69" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="D69" s="20">
+        <v>3</v>
+      </c>
+      <c r="E69" s="20">
+        <v>90</v>
+      </c>
+      <c r="F69" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69" s="18">
+        <v>1</v>
+      </c>
+      <c r="I69" s="18"/>
+      <c r="K69" s="10">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="3">
+        <v>67</v>
+      </c>
+      <c r="B70" s="15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C70" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D70" s="15">
+        <v>3</v>
+      </c>
+      <c r="E70" s="15">
+        <v>90</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I70" s="18">
+        <v>1</v>
+      </c>
+      <c r="J70" s="18">
+        <v>51</v>
+      </c>
+      <c r="K70" s="18">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="3">
+        <v>68</v>
+      </c>
+      <c r="B71" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="C71" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D71" s="15">
+        <v>3</v>
+      </c>
+      <c r="E71" s="15">
+        <v>90</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I71" s="18">
+        <v>1</v>
+      </c>
+      <c r="J71" s="18">
+        <v>52</v>
+      </c>
+      <c r="K71" s="18">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="3">
+        <v>69</v>
+      </c>
+      <c r="B72" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="C72" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D72" s="15">
+        <v>3</v>
+      </c>
+      <c r="E72" s="15">
+        <v>90</v>
+      </c>
+      <c r="F72" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I72" s="18">
+        <v>1</v>
+      </c>
+      <c r="J72" s="18">
+        <v>53</v>
+      </c>
+      <c r="K72" s="18">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="3">
+        <v>70</v>
+      </c>
+      <c r="B73" s="15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C73" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D73" s="15">
+        <v>3</v>
+      </c>
+      <c r="E73" s="15">
+        <v>90</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I73" s="18">
+        <v>1</v>
+      </c>
+      <c r="J73" s="18">
+        <v>54</v>
+      </c>
+      <c r="K73" s="18">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="3">
+        <v>71</v>
+      </c>
+      <c r="B74" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="C74" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D74" s="15">
+        <v>3</v>
+      </c>
+      <c r="E74" s="15">
+        <v>90</v>
+      </c>
+      <c r="F74" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I74" s="18">
+        <v>1</v>
+      </c>
+      <c r="J74" s="18">
+        <v>55</v>
+      </c>
+      <c r="K74" s="18">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="3">
+        <v>72</v>
+      </c>
+      <c r="B75" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="C75" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D75" s="15">
+        <v>3</v>
+      </c>
+      <c r="E75" s="15">
+        <v>90</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I75" s="18">
+        <v>1</v>
+      </c>
+      <c r="J75" s="18">
+        <v>56</v>
+      </c>
+      <c r="K75" s="18">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="3">
+        <v>73</v>
+      </c>
+      <c r="B76" s="15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C76" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="D76" s="15">
+        <v>5</v>
+      </c>
+      <c r="E76" s="15">
+        <v>90</v>
+      </c>
+      <c r="F76" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H76" s="18">
+        <v>1</v>
+      </c>
+      <c r="I76" s="18">
+        <v>1</v>
+      </c>
+      <c r="J76" s="18">
+        <v>57</v>
+      </c>
+      <c r="K76" s="18">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="11">
+        <v>74</v>
+      </c>
+      <c r="B77" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="C77" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="D77" s="20">
+        <v>5</v>
+      </c>
+      <c r="E77" s="20">
+        <v>90</v>
+      </c>
+      <c r="F77" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H77" s="18">
+        <v>1</v>
+      </c>
+      <c r="K77" s="10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="11">
+        <v>75</v>
+      </c>
+      <c r="B78" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="C78" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="D78" s="20">
+        <v>5</v>
+      </c>
+      <c r="E78" s="20">
+        <v>90</v>
+      </c>
+      <c r="F78" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H78" s="18">
+        <v>1</v>
+      </c>
+      <c r="K78" s="10">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="3">
+        <v>76</v>
+      </c>
+      <c r="B79" s="15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C79" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D79" s="15">
+        <v>5</v>
+      </c>
+      <c r="E79" s="15">
+        <v>90</v>
+      </c>
+      <c r="F79" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I79" s="18">
+        <v>1</v>
+      </c>
+      <c r="J79" s="18">
+        <v>58</v>
+      </c>
+      <c r="K79" s="18">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="3">
+        <v>77</v>
+      </c>
+      <c r="B80" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="C80" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D80" s="15">
+        <v>5</v>
+      </c>
+      <c r="E80" s="15">
+        <v>90</v>
+      </c>
+      <c r="F80" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I80" s="18">
+        <v>1</v>
+      </c>
+      <c r="J80" s="18">
+        <v>59</v>
+      </c>
+      <c r="K80" s="18">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="3">
+        <v>78</v>
+      </c>
+      <c r="B81" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="C81" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D81" s="15">
+        <v>5</v>
+      </c>
+      <c r="E81" s="15">
+        <v>90</v>
+      </c>
+      <c r="F81" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I81" s="18">
+        <v>1</v>
+      </c>
+      <c r="J81" s="18">
+        <v>60</v>
+      </c>
+      <c r="K81" s="18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="3">
+        <v>79</v>
+      </c>
+      <c r="B82" s="15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C82" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D82" s="15">
+        <v>5</v>
+      </c>
+      <c r="E82" s="15">
+        <v>90</v>
+      </c>
+      <c r="F82" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I82" s="18">
+        <v>1</v>
+      </c>
+      <c r="J82" s="18">
+        <v>61</v>
+      </c>
+      <c r="K82" s="18">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="3">
+        <v>80</v>
+      </c>
+      <c r="B83" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="C83" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D83" s="15">
+        <v>5</v>
+      </c>
+      <c r="E83" s="15">
+        <v>90</v>
+      </c>
+      <c r="F83" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I83" s="18">
+        <v>1</v>
+      </c>
+      <c r="J83" s="18">
+        <v>62</v>
+      </c>
+      <c r="K83" s="18">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="3">
+        <v>81</v>
+      </c>
+      <c r="B84" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="C84" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D84" s="15">
+        <v>5</v>
+      </c>
+      <c r="E84" s="15">
+        <v>90</v>
+      </c>
+      <c r="F84" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I84" s="18">
+        <v>1</v>
+      </c>
+      <c r="J84" s="18">
+        <v>63</v>
+      </c>
+      <c r="K84" s="18">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G85">
+        <f t="shared" ref="G85:H85" si="0">SUM(G3:G84)</f>
+        <v>22</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="I85">
+        <f>SUM(I3:I84)</f>
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>